--- a/data/trans_orig/P57b3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31A862E0-E343-4B7F-9317-0408BDAEF038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5F17CF7-5B82-4856-BC27-DE4E87BA00FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BEC74B54-FADC-4499-9907-015E212B428B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8FC40146-2E32-4FAD-BFA7-731ACEFA1DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>1,66%</t>
@@ -86,16 +86,16 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,08%</t>
+    <t>3,09%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,16 +104,16 @@
     <t>98,69%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>96,92%</t>
+    <t>96,91%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -122,10 +122,10 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>7,91%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>92,09%</t>
   </si>
   <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,10 +194,10 @@
     <t>10,86%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>13,65%</t>
@@ -206,265 +206,265 @@
     <t>10,99%</t>
   </si>
   <si>
-    <t>16,58%</t>
+    <t>16,73%</t>
   </si>
   <si>
     <t>12,36%</t>
   </si>
   <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
   </si>
   <si>
     <t>89,51%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>93,8%</t>
   </si>
   <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +473,109 @@
     <t>27,0%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
   </si>
   <si>
     <t>25,62%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>74,38%</t>
   </si>
   <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>86,78%</t>
   </si>
   <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B1DCD3-8DDA-4F3F-9448-4590E31F8E07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4D5592-22E5-4EE7-B356-51F9DD8EC01B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1907,7 +1907,7 @@
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>112</v>
@@ -1961,7 +1961,7 @@
         <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>670</v>
@@ -2417,7 +2417,7 @@
         <v>4572</v>
       </c>
       <c r="I29" s="7">
-        <v>3303869</v>
+        <v>3303868</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -2432,7 +2432,7 @@
         <v>7486</v>
       </c>
       <c r="N29" s="7">
-        <v>6235112</v>
+        <v>6235111</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>177</v>
@@ -2468,7 +2468,7 @@
         <v>5355</v>
       </c>
       <c r="I30" s="7">
-        <v>3801489</v>
+        <v>3801488</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2483,7 @@
         <v>8729</v>
       </c>
       <c r="N30" s="7">
-        <v>7184584</v>
+        <v>7184583</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P57b3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5F17CF7-5B82-4856-BC27-DE4E87BA00FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75BBF6A2-888D-4524-92E6-84739AFA0427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8FC40146-2E32-4FAD-BFA7-731ACEFA1DAB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12283F71-CEEF-4443-869D-F313B588C80F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4D5592-22E5-4EE7-B356-51F9DD8EC01B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A500EC8-1CC8-463D-A412-20A32F64773C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57b3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75BBF6A2-888D-4524-92E6-84739AFA0427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B195E6DB-6BD4-43F0-B43A-AC325BC8444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12283F71-CEEF-4443-869D-F313B588C80F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0BC83F31-6D52-4D5D-8105-8A99432AA098}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>1,66%</t>
@@ -86,16 +86,16 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,09%</t>
+    <t>3,08%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,16 +104,16 @@
     <t>98,69%</t>
   </si>
   <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>96,91%</t>
+    <t>96,92%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -122,10 +122,10 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>7,91%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
   </si>
   <si>
     <t>92,09%</t>
   </si>
   <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,10 +194,10 @@
     <t>10,86%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>13,65%</t>
@@ -206,31 +206,31 @@
     <t>10,99%</t>
   </si>
   <si>
-    <t>16,73%</t>
+    <t>16,58%</t>
   </si>
   <si>
     <t>12,36%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>86,35%</t>
   </si>
   <si>
-    <t>83,27%</t>
+    <t>83,42%</t>
   </si>
   <si>
     <t>89,01%</t>
@@ -239,10 +239,10 @@
     <t>87,64%</t>
   </si>
   <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>5,68%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>14,41%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>12,68%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>87,32%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,10 +365,10 @@
     <t>15,35%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>13,42%</t>
@@ -380,19 +380,19 @@
     <t>14,38%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>84,65%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>86,58%</t>
@@ -404,10 +404,10 @@
     <t>85,62%</t>
   </si>
   <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,166 +416,166 @@
     <t>8,21%</t>
   </si>
   <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>10,02%</t>
   </si>
   <si>
     <t>91,79%</t>
   </si>
   <si>
-    <t>89,39%</t>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
   </si>
   <si>
     <t>25,62%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
   </si>
   <si>
     <t>74,38%</t>
   </si>
   <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>86,78%</t>
   </si>
   <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A500EC8-1CC8-463D-A412-20A32F64773C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498CCD52-5655-4D2A-B593-FF6DA1835A80}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1907,7 +1907,7 @@
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>112</v>
@@ -1961,7 +1961,7 @@
         <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="M20" s="7">
         <v>670</v>
@@ -2417,7 +2417,7 @@
         <v>4572</v>
       </c>
       <c r="I29" s="7">
-        <v>3303868</v>
+        <v>3303869</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -2432,7 +2432,7 @@
         <v>7486</v>
       </c>
       <c r="N29" s="7">
-        <v>6235111</v>
+        <v>6235112</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>177</v>
@@ -2468,7 +2468,7 @@
         <v>5355</v>
       </c>
       <c r="I30" s="7">
-        <v>3801488</v>
+        <v>3801489</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2483,7 @@
         <v>8729</v>
       </c>
       <c r="N30" s="7">
-        <v>7184583</v>
+        <v>7184584</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P57b3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B195E6DB-6BD4-43F0-B43A-AC325BC8444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{750636B1-D856-420A-B17F-A533C6D735C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0BC83F31-6D52-4D5D-8105-8A99432AA098}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CD97E05B-4303-4A2A-A95E-792D5E0BAFA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,448 +134,448 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
   </si>
   <si>
     <t>14,35%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>85,65%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
   </si>
   <si>
     <t>84,73%</t>
   </si>
   <si>
-    <t>89,61%</t>
+    <t>89,57%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498CCD52-5655-4D2A-B593-FF6DA1835A80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721EE665-E41B-4A80-A3BE-E94D6F688E05}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>3400</v>
+        <v>3744</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1126,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>4505</v>
+        <v>4624</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1141,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>7905</v>
+        <v>8367</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1162,7 @@
         <v>326</v>
       </c>
       <c r="D5" s="7">
-        <v>256898</v>
+        <v>307699</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,7 +1177,7 @@
         <v>528</v>
       </c>
       <c r="I5" s="7">
-        <v>266898</v>
+        <v>285011</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1192,7 +1192,7 @@
         <v>854</v>
       </c>
       <c r="N5" s="7">
-        <v>523795</v>
+        <v>592710</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1213,7 +1213,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1228,7 +1228,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1243,7 +1243,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1266,7 +1266,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>40993</v>
+        <v>39733</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1281,7 +1281,7 @@
         <v>76</v>
       </c>
       <c r="I7" s="7">
-        <v>55658</v>
+        <v>51849</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1296,7 +1296,7 @@
         <v>109</v>
       </c>
       <c r="N7" s="7">
-        <v>96651</v>
+        <v>91582</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1317,7 +1317,7 @@
         <v>348</v>
       </c>
       <c r="D8" s="7">
-        <v>477343</v>
+        <v>477789</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1332,7 +1332,7 @@
         <v>640</v>
       </c>
       <c r="I8" s="7">
-        <v>497456</v>
+        <v>462028</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1347,7 +1347,7 @@
         <v>988</v>
       </c>
       <c r="N8" s="7">
-        <v>974800</v>
+        <v>939817</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1368,7 +1368,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518336</v>
+        <v>517522</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1383,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553114</v>
+        <v>513877</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1398,7 +1398,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1071451</v>
+        <v>1031399</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1421,7 +1421,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>35002</v>
+        <v>33633</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1436,7 +1436,7 @@
         <v>88</v>
       </c>
       <c r="I10" s="7">
-        <v>50942</v>
+        <v>47022</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1451,7 +1451,7 @@
         <v>134</v>
       </c>
       <c r="N10" s="7">
-        <v>85944</v>
+        <v>80656</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1472,7 +1472,7 @@
         <v>314</v>
       </c>
       <c r="D11" s="7">
-        <v>287238</v>
+        <v>282417</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1487,7 +1487,7 @@
         <v>448</v>
       </c>
       <c r="I11" s="7">
-        <v>322342</v>
+        <v>302106</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1502,7 +1502,7 @@
         <v>762</v>
       </c>
       <c r="N11" s="7">
-        <v>609580</v>
+        <v>584522</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1523,7 +1523,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1538,7 +1538,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1553,7 +1553,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1576,7 +1576,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>18313</v>
+        <v>17463</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1591,7 +1591,7 @@
         <v>56</v>
       </c>
       <c r="I13" s="7">
-        <v>34151</v>
+        <v>31237</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1606,7 +1606,7 @@
         <v>73</v>
       </c>
       <c r="N13" s="7">
-        <v>52464</v>
+        <v>48699</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1627,7 +1627,7 @@
         <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>303927</v>
+        <v>295094</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1642,7 +1642,7 @@
         <v>540</v>
       </c>
       <c r="I14" s="7">
-        <v>392603</v>
+        <v>442764</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1657,7 +1657,7 @@
         <v>815</v>
       </c>
       <c r="N14" s="7">
-        <v>696530</v>
+        <v>737859</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1678,7 +1678,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1693,7 +1693,7 @@
         <v>596</v>
       </c>
       <c r="I15" s="7">
-        <v>426754</v>
+        <v>474001</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1708,7 +1708,7 @@
         <v>888</v>
       </c>
       <c r="N15" s="7">
-        <v>748994</v>
+        <v>786558</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1731,7 +1731,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>28347</v>
+        <v>25641</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1746,7 +1746,7 @@
         <v>61</v>
       </c>
       <c r="I16" s="7">
-        <v>25971</v>
+        <v>23576</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1761,7 +1761,7 @@
         <v>103</v>
       </c>
       <c r="N16" s="7">
-        <v>54317</v>
+        <v>49217</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1782,7 +1782,7 @@
         <v>237</v>
       </c>
       <c r="D17" s="7">
-        <v>168401</v>
+        <v>153101</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1797,7 +1797,7 @@
         <v>430</v>
       </c>
       <c r="I17" s="7">
-        <v>205525</v>
+        <v>184698</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1812,7 +1812,7 @@
         <v>667</v>
       </c>
       <c r="N17" s="7">
-        <v>373927</v>
+        <v>337799</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1833,7 +1833,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1848,7 +1848,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1863,7 +1863,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1886,7 +1886,7 @@
         <v>71</v>
       </c>
       <c r="D19" s="7">
-        <v>42545</v>
+        <v>40916</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1901,13 +1901,13 @@
         <v>90</v>
       </c>
       <c r="I19" s="7">
-        <v>36979</v>
+        <v>34510</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>112</v>
@@ -1916,7 +1916,7 @@
         <v>161</v>
       </c>
       <c r="N19" s="7">
-        <v>79524</v>
+        <v>75426</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -1937,7 +1937,7 @@
         <v>300</v>
       </c>
       <c r="D20" s="7">
-        <v>234678</v>
+        <v>228720</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -1952,7 +1952,7 @@
         <v>370</v>
       </c>
       <c r="I20" s="7">
-        <v>238643</v>
+        <v>222546</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -1961,13 +1961,13 @@
         <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>670</v>
       </c>
       <c r="N20" s="7">
-        <v>473321</v>
+        <v>451266</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -1988,7 +1988,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2003,7 +2003,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2018,7 +2018,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2041,7 +2041,7 @@
         <v>56</v>
       </c>
       <c r="D22" s="7">
-        <v>51522</v>
+        <v>49829</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>125</v>
@@ -2056,7 +2056,7 @@
         <v>94</v>
       </c>
       <c r="I22" s="7">
-        <v>66928</v>
+        <v>61185</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>128</v>
@@ -2071,7 +2071,7 @@
         <v>150</v>
       </c>
       <c r="N22" s="7">
-        <v>118450</v>
+        <v>111014</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>131</v>
@@ -2092,7 +2092,7 @@
         <v>543</v>
       </c>
       <c r="D23" s="7">
-        <v>576232</v>
+        <v>574450</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>134</v>
@@ -2107,7 +2107,7 @@
         <v>862</v>
       </c>
       <c r="I23" s="7">
-        <v>734453</v>
+        <v>785447</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>137</v>
@@ -2122,7 +2122,7 @@
         <v>1405</v>
       </c>
       <c r="N23" s="7">
-        <v>1310686</v>
+        <v>1359897</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>140</v>
@@ -2143,7 +2143,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2158,7 +2158,7 @@
         <v>956</v>
       </c>
       <c r="I24" s="7">
-        <v>801381</v>
+        <v>846632</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2173,7 +2173,7 @@
         <v>1555</v>
       </c>
       <c r="N24" s="7">
-        <v>1429136</v>
+        <v>1470911</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2196,7 +2196,7 @@
         <v>190</v>
       </c>
       <c r="D25" s="7">
-        <v>231730</v>
+        <v>398375</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>144</v>
@@ -2211,7 +2211,7 @@
         <v>308</v>
       </c>
       <c r="I25" s="7">
-        <v>222486</v>
+        <v>186487</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>147</v>
@@ -2226,7 +2226,7 @@
         <v>498</v>
       </c>
       <c r="N25" s="7">
-        <v>454216</v>
+        <v>584863</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>150</v>
@@ -2247,7 +2247,7 @@
         <v>571</v>
       </c>
       <c r="D26" s="7">
-        <v>626525</v>
+        <v>529320</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>153</v>
@@ -2262,7 +2262,7 @@
         <v>754</v>
       </c>
       <c r="I26" s="7">
-        <v>645948</v>
+        <v>531244</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>156</v>
@@ -2277,7 +2277,7 @@
         <v>1325</v>
       </c>
       <c r="N26" s="7">
-        <v>1272474</v>
+        <v>1060563</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>159</v>
@@ -2298,7 +2298,7 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858255</v>
+        <v>927695</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2313,7 +2313,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2328,7 +2328,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1726690</v>
+        <v>1645426</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2351,7 +2351,7 @@
         <v>460</v>
       </c>
       <c r="D28" s="7">
-        <v>451852</v>
+        <v>609334</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>162</v>
@@ -2366,7 +2366,7 @@
         <v>783</v>
       </c>
       <c r="I28" s="7">
-        <v>497620</v>
+        <v>440490</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>165</v>
@@ -2381,7 +2381,7 @@
         <v>1243</v>
       </c>
       <c r="N28" s="7">
-        <v>949472</v>
+        <v>1049824</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>168</v>
@@ -2402,7 +2402,7 @@
         <v>2914</v>
       </c>
       <c r="D29" s="7">
-        <v>2931242</v>
+        <v>2848590</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>171</v>
@@ -2417,7 +2417,7 @@
         <v>4572</v>
       </c>
       <c r="I29" s="7">
-        <v>3303869</v>
+        <v>3215843</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -2432,7 +2432,7 @@
         <v>7486</v>
       </c>
       <c r="N29" s="7">
-        <v>6235112</v>
+        <v>6064433</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>177</v>
@@ -2453,7 +2453,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383094</v>
+        <v>3457924</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2468,7 +2468,7 @@
         <v>5355</v>
       </c>
       <c r="I30" s="7">
-        <v>3801489</v>
+        <v>3656333</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2483,7 @@
         <v>8729</v>
       </c>
       <c r="N30" s="7">
-        <v>7184584</v>
+        <v>7114257</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
